--- a/notebooks/assets/test/RF1G0_01.xlsx
+++ b/notebooks/assets/test/RF1G0_01.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.126</v>
+        <v>0.184</v>
       </c>
       <c r="C2" t="n">
-        <v>0.177</v>
+        <v>0.212</v>
       </c>
       <c r="D2" t="n">
-        <v>0.137</v>
+        <v>0.189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.259</v>
+        <v>0.371</v>
       </c>
       <c r="F2" t="n">
-        <v>0.14</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.039</v>
+        <v>0.112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.175</v>
+        <v>0.111</v>
       </c>
       <c r="D3" t="n">
-        <v>0.059</v>
+        <v>0.108</v>
       </c>
       <c r="E3" t="n">
-        <v>0.217</v>
+        <v>0.626</v>
       </c>
       <c r="F3" t="n">
-        <v>0.046</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="4">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.294</v>
+        <v>18.271</v>
       </c>
       <c r="C5" t="n">
-        <v>15.308</v>
+        <v>15.341</v>
       </c>
       <c r="D5" t="n">
-        <v>13.168</v>
+        <v>13.129</v>
       </c>
       <c r="E5" t="n">
-        <v>31.158</v>
+        <v>31.143</v>
       </c>
       <c r="F5" t="n">
-        <v>18.206</v>
+        <v>18.184</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.987</v>
+        <v>0.992</v>
       </c>
       <c r="D6" t="n">
-        <v>0.983</v>
+        <v>0.969</v>
       </c>
       <c r="E6" t="n">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="F6" t="n">
-        <v>0.998</v>
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
